--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886BD32-DB64-734C-963E-D80D5283BA7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA5E0F-2C1B-D846-9CE6-54D050A175FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -84,39 +84,6 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{1BF34190-5F72-7645-BE15-898F9B7EDDC6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average annual spending 2019-2024 from Yi-Kyoung</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3F519331-3FEE-8242-AC5A-60B03343E38E}">
       <text>
         <r>
@@ -188,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Region</t>
   </si>
@@ -263,12 +230,6 @@
   </si>
   <si>
     <t>Budget scenario</t>
-  </si>
-  <si>
-    <t>Additional spending ($USD)</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Current spending description</t>
@@ -362,6 +323,35 @@
       </rPr>
       <t>: Funding remains at current levels</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional spending for all regions ($USD) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: funds can be distributed between regions</t>
+    </r>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -470,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,6 +479,12 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,21 +1011,21 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1037,10 +1033,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -1054,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -1071,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="13">
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
@@ -1086,13 +1082,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
@@ -1104,22 +1100,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA5E0F-2C1B-D846-9CE6-54D050A175FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{618988BE-F284-CD40-B4BB-F8A6D89F54A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
     <sheet name="Optimal funding scenario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -352,6 +352,21 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Kaskazini Unguja</t>
+  </si>
+  <si>
+    <t>Kaskazini Pemba</t>
+  </si>
+  <si>
+    <t>Kusini Pemba</t>
+  </si>
+  <si>
+    <t>Kusini Unguja</t>
+  </si>
+  <si>
+    <t>Mjini Magharibi</t>
   </si>
 </sst>
 </file>
@@ -800,15 +815,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875686D2-62DB-5148-AE87-D8FE690481A1}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -850,142 +865,180 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>65831.185454545455</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>203617.48545454544</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>204623.54545454544</v>
+        <v>65831.185454545455</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>811987.85090909095</v>
+        <v>203617.48545454544</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>291253.25028181821</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3456219.3768181819</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
-        <v>233815.43454545454</v>
+        <v>204623.54545454544</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5">
-        <v>306057.97045454546</v>
+        <v>811987.85090909095</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
-        <v>143226.44545454546</v>
+        <v>291253.25028181821</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>682360.4718181818</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5">
-        <v>641061.65625</v>
+        <v>3456219.3768181819</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5">
-        <v>451140.74136363639</v>
+        <v>233815.43454545454</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5">
-        <v>328555.68181818182</v>
+        <v>306057.97045454546</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>143226.44545454546</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <v>682360.4718181818</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>641061.65625</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>451140.74136363639</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>328555.68181818182</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B23" s="5">
         <v>378379.0459090909</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
-        <f>SUM(B2:B18)</f>
+      <c r="B24" s="7">
+        <f>SUM(B2:B23)</f>
         <v>9891483.4535681829</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="E20" s="3"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,9 +1094,7 @@
       <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1058,9 +1109,7 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -1094,9 +1143,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{618988BE-F284-CD40-B4BB-F8A6D89F54A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4A5EDA3-E15F-FE44-8370-F9C7075C08AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
@@ -416,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,6 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +825,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,14 +874,18 @@
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="17">
+        <v>65000</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="17">
+        <v>65000</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -899,14 +910,18 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="17">
+        <v>65000</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="17">
+        <v>65000</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,7 +955,9 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="17">
+        <v>65000</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1047,7 @@
       </c>
       <c r="B24" s="7">
         <f>SUM(B2:B23)</f>
-        <v>9891483.4535681829</v>
+        <v>10216483.453568183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4A5EDA3-E15F-FE44-8370-F9C7075C08AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{26977A23-D745-6343-868B-1A9CE42FD9B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,39 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5DD8B547-D8D5-7549-A948-7A084F42ED59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average annual spending 2019-2024 from Yi-Kyoung</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3F519331-3FEE-8242-AC5A-60B03343E38E}">
       <text>
         <r>
@@ -824,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875686D2-62DB-5148-AE87-D8FE690481A1}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1068,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,12 +1139,15 @@
         <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="D2" s="13">
+        <f>(20+30+45+45+35+22)/6 * 1000000</f>
+        <v>32833333.333333336</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1142,9 +1178,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{26977A23-D745-6343-868B-1A9CE42FD9B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4F7839F8-2C72-FF4F-BFFF-DB38EE4B0393}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -858,7 +858,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,18 +907,14 @@
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17">
-        <v>65000</v>
-      </c>
+      <c r="B5" s="17"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="17">
-        <v>65000</v>
-      </c>
+      <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,18 +939,14 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="17">
-        <v>65000</v>
-      </c>
+      <c r="B9" s="17"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="17">
-        <v>65000</v>
-      </c>
+      <c r="B10" s="17"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,9 +980,7 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="17">
-        <v>65000</v>
-      </c>
+      <c r="B14" s="17"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,7 +1070,7 @@
       </c>
       <c r="B24" s="7">
         <f>SUM(B2:B23)</f>
-        <v>10216483.453568183</v>
+        <v>9891483.4535681829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1168,9 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4F7839F8-2C72-FF4F-BFFF-DB38EE4B0393}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{201BFD08-18AE-A846-8AF9-228B7CA029A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,9 +1135,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{201BFD08-18AE-A846-8AF9-228B7CA029A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B5EC0ABE-31C8-4747-BFA1-FA0FEA9DE270}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5DD8B547-D8D5-7549-A948-7A084F42ED59}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{02A23E64-C954-824C-B79B-88C370966643}">
       <text>
         <r>
           <rPr>
@@ -150,45 +150,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{679B7640-79E7-6E4A-900A-7DA054AE1B0A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average annual spending 2019-2024 from Yi-Kyoung</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Region</t>
   </si>
@@ -280,13 +247,28 @@
     <t>Fixed, current allocation</t>
   </si>
   <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
     <t>Check to include in analysis</t>
   </si>
   <si>
     <t>Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional spending for all regions ($USD) </t>
+  </si>
+  <si>
+    <t>Kaskazini Unguja</t>
+  </si>
+  <si>
+    <t>Kaskazini Pemba</t>
+  </si>
+  <si>
+    <t>Kusini Pemba</t>
+  </si>
+  <si>
+    <t>Kusini Unguja</t>
+  </si>
+  <si>
+    <t>Mjini Magharibi</t>
   </si>
   <si>
     <r>
@@ -298,7 +280,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fixed</t>
+      <t>Fixed:</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +290,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: funds cannot be distributed between regions</t>
+      <t xml:space="preserve"> funds cannot be distributed between regions</t>
     </r>
   </si>
   <si>
@@ -321,7 +303,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Programatically optimised</t>
+      <t>Free:</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +313,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: funding allocated optimally between programs (objective specific)</t>
+      <t xml:space="preserve"> funds can be distributed between regions</t>
     </r>
   </si>
   <si>
@@ -344,7 +326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Current allocation</t>
+      <t>Programatically optimised:</t>
     </r>
     <r>
       <rPr>
@@ -354,11 +336,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Funding remains at current levels</t>
+      <t xml:space="preserve"> funding allocated optimally between programs (objective specific)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional spending for all regions ($USD) </t>
   </si>
   <si>
     <r>
@@ -370,7 +349,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Free</t>
+      <t>Current allocation:</t>
     </r>
     <r>
       <rPr>
@@ -380,26 +359,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: funds can be distributed between regions</t>
+      <t xml:space="preserve"> Funding remains at current levels</t>
     </r>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Kaskazini Unguja</t>
-  </si>
-  <si>
-    <t>Kaskazini Pemba</t>
-  </si>
-  <si>
-    <t>Kusini Pemba</t>
-  </si>
-  <si>
-    <t>Kusini Unguja</t>
-  </si>
-  <si>
-    <t>Mjini Magharibi</t>
   </si>
 </sst>
 </file>
@@ -514,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,7 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,13 +818,14 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,6 +844,7 @@
       <c r="B2" s="5">
         <v>329810.39545454545</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,20 +863,22 @@
       <c r="B4" s="5">
         <v>442830.18885454547</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -933,20 +897,22 @@
       <c r="B8" s="5">
         <v>203617.48545454544</v>
       </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="16"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,9 +944,9 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,11 +1080,11 @@
       <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>36</v>
+      <c r="D1" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,11 +1097,13 @@
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1145,12 +1113,12 @@
         <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="11">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -1162,53 +1130,35 @@
       <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13">
-        <f>(20+30+45+45+35+22)/6 * 1000000</f>
-        <v>32833333.333333336</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>32</v>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B5EC0ABE-31C8-4747-BFA1-FA0FEA9DE270}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A7E05DF-A544-4D43-B47E-603BCF60EA21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,9 +1101,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1134,7 +1132,9 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A7E05DF-A544-4D43-B47E-603BCF60EA21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C28ACF59-64B3-8241-A168-21681394861E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Current expenditure" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Region</t>
   </si>
@@ -818,7 +818,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,9 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C28ACF59-64B3-8241-A168-21681394861E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A375C523-1AE6-D54B-BBE4-7CDB8B0D8441}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Region</t>
   </si>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6C199-5511-6948-BFE1-269E2A0DC50C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1134,9 +1134,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">

--- a/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
+++ b/input_spreadsheets/Tanzania/optimisationBudgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A375C523-1AE6-D54B-BBE4-7CDB8B0D8441}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9F71DD9-1892-CD48-BAE8-D5E7331283B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" activeTab="1" xr2:uid="{6937E72E-728A-D145-8CDA-D71DF27F887B}"/>
   </bookViews>
@@ -1101,9 +1101,7 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1134,7 +1132,9 @@
         <f>(20+30+45+45+35+22)/6 * 1000000</f>
         <v>32833333.333333336</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
